--- a/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_REC100.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_REC100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\Nueva carpeta (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="196">
   <si>
     <t>Fecha:</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>tabla con imágenes de una funcion cuadratica</t>
+  </si>
+  <si>
+    <t>FÓRMULA</t>
   </si>
 </sst>
 </file>
@@ -1824,15 +1827,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>295178</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116159</xdr:rowOff>
+      <xdr:colOff>375670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2973657</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2392866</xdr:rowOff>
+      <xdr:colOff>3054149</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2459944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1850,7 +1853,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16673532" y="4251403"/>
+          <a:off x="16729156" y="6944645"/>
           <a:ext cx="2678479" cy="2276707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1871,15 +1874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>673719</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209085</xdr:rowOff>
+      <xdr:colOff>713966</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2532256</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2718110</xdr:rowOff>
+      <xdr:colOff>2572503</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2557124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1897,7 +1900,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17052073" y="6946280"/>
+          <a:off x="17067452" y="9707254"/>
           <a:ext cx="1858537" cy="2509025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1911,6 +1914,50 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>643943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3129700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1634543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16635211" y="4789330"/>
+          <a:ext cx="2847975" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2633,9 +2680,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="41" zoomScaleNormal="41" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2999,7 +3046,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -3042,7 +3089,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -3050,35 +3097,43 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>189</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso M101</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>MA_10_01_REC10_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_10_01_REC10_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="64"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>

--- a/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_REC100.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_REC100.xlsx
@@ -2681,7 +2681,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
